--- a/data/pca/factorExposure/factorExposure_2017-07-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02359025698636917</v>
+        <v>0.008970717301413068</v>
       </c>
       <c r="C2">
-        <v>-0.003920837117360141</v>
+        <v>0.04224283559982865</v>
       </c>
       <c r="D2">
-        <v>-0.02893238637079976</v>
+        <v>-0.02960466455034571</v>
       </c>
       <c r="E2">
-        <v>-0.01001602958249012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03047938431555539</v>
+      </c>
+      <c r="F2">
+        <v>0.009410992297786495</v>
+      </c>
+      <c r="G2">
+        <v>0.07459372365966362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01753370539624122</v>
+        <v>0.04322385511397384</v>
       </c>
       <c r="C3">
-        <v>0.05485223943262123</v>
+        <v>0.09030950380582611</v>
       </c>
       <c r="D3">
-        <v>-0.04761703460159727</v>
+        <v>-0.01754013492280319</v>
       </c>
       <c r="E3">
-        <v>-0.01350141868501554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1018870047620589</v>
+      </c>
+      <c r="F3">
+        <v>0.0126531967865204</v>
+      </c>
+      <c r="G3">
+        <v>0.1738408548098959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02377197038354091</v>
+        <v>0.05545078367449402</v>
       </c>
       <c r="C4">
-        <v>0.01105138869667235</v>
+        <v>0.06722295970887875</v>
       </c>
       <c r="D4">
-        <v>-0.07945425971363333</v>
+        <v>-0.02457593404728487</v>
       </c>
       <c r="E4">
-        <v>0.01770407171798986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02484243365391351</v>
+      </c>
+      <c r="F4">
+        <v>0.0121290691717709</v>
+      </c>
+      <c r="G4">
+        <v>0.0881992057981667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01454375141582627</v>
+        <v>0.03685119747925571</v>
       </c>
       <c r="C6">
-        <v>0.000757606895177487</v>
+        <v>0.05317331767785048</v>
       </c>
       <c r="D6">
-        <v>-0.08115226786681272</v>
+        <v>-0.01641571804568437</v>
       </c>
       <c r="E6">
-        <v>0.01032713520661726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02368304170888401</v>
+      </c>
+      <c r="F6">
+        <v>0.00950361019479571</v>
+      </c>
+      <c r="G6">
+        <v>0.06176939145627907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01115277322473219</v>
+        <v>0.01945514303961015</v>
       </c>
       <c r="C7">
-        <v>0.006255256350225934</v>
+        <v>0.04076518406148532</v>
       </c>
       <c r="D7">
-        <v>-0.04151444611038901</v>
+        <v>-0.0131770281166246</v>
       </c>
       <c r="E7">
-        <v>0.05827962488415851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.005568090590014735</v>
+      </c>
+      <c r="F7">
+        <v>-0.003464862380116051</v>
+      </c>
+      <c r="G7">
+        <v>0.1178383352949373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.000209802878369273</v>
+        <v>0.001908624555490932</v>
       </c>
       <c r="C8">
-        <v>-0.002130989084833997</v>
+        <v>0.0234062550276051</v>
       </c>
       <c r="D8">
-        <v>-0.003247361074130426</v>
+        <v>-0.003960716047193443</v>
       </c>
       <c r="E8">
-        <v>0.008665230030460392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02033788553177746</v>
+      </c>
+      <c r="F8">
+        <v>0.007417247515919444</v>
+      </c>
+      <c r="G8">
+        <v>0.0568585445614266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01639462733624823</v>
+        <v>0.03257730390300934</v>
       </c>
       <c r="C9">
-        <v>0.01363333851424389</v>
+        <v>0.04821573463265733</v>
       </c>
       <c r="D9">
-        <v>-0.06013380848815171</v>
+        <v>-0.01670035672152188</v>
       </c>
       <c r="E9">
-        <v>0.006502879457004906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01559546492327352</v>
+      </c>
+      <c r="F9">
+        <v>0.01065464887442272</v>
+      </c>
+      <c r="G9">
+        <v>0.0840966458356268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02314860629719878</v>
+        <v>0.09992443800021343</v>
       </c>
       <c r="C10">
-        <v>0.1737290356933855</v>
+        <v>-0.1810129499697395</v>
       </c>
       <c r="D10">
-        <v>0.09448011225480139</v>
+        <v>0.01505360970541768</v>
       </c>
       <c r="E10">
-        <v>-0.01207908918919211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01800373233854525</v>
+      </c>
+      <c r="F10">
+        <v>-0.02084094939491005</v>
+      </c>
+      <c r="G10">
+        <v>0.05286207312195414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0006850165718596246</v>
+        <v>0.03391655675999099</v>
       </c>
       <c r="C11">
-        <v>0.002596066711622118</v>
+        <v>0.05505569877277493</v>
       </c>
       <c r="D11">
-        <v>-0.04655887749507602</v>
+        <v>-0.002423832151199705</v>
       </c>
       <c r="E11">
-        <v>-0.004596588281750444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.0082597012126973</v>
+      </c>
+      <c r="F11">
+        <v>0.02154468838900837</v>
+      </c>
+      <c r="G11">
+        <v>0.06705421150373746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.00632283537230963</v>
+        <v>0.03555113754477189</v>
       </c>
       <c r="C12">
-        <v>0.009134886834716988</v>
+        <v>0.04903486096015673</v>
       </c>
       <c r="D12">
-        <v>-0.04811805049859985</v>
+        <v>-0.006190540193945242</v>
       </c>
       <c r="E12">
-        <v>0.00703441782056193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0001720972686721174</v>
+      </c>
+      <c r="F12">
+        <v>0.001032271452888</v>
+      </c>
+      <c r="G12">
+        <v>0.06328155958153545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02405307331108217</v>
+        <v>0.01450165370807076</v>
       </c>
       <c r="C13">
-        <v>0.01760503087179807</v>
+        <v>0.0376638778897877</v>
       </c>
       <c r="D13">
-        <v>-0.009380049171680114</v>
+        <v>-0.02609624444958271</v>
       </c>
       <c r="E13">
-        <v>-0.008423694872932347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02798873040743995</v>
+      </c>
+      <c r="F13">
+        <v>0.007356788604349479</v>
+      </c>
+      <c r="G13">
+        <v>0.09721887453577749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008704902038258265</v>
+        <v>0.00760447202586829</v>
       </c>
       <c r="C14">
-        <v>0.01387608530279628</v>
+        <v>0.02659908901973025</v>
       </c>
       <c r="D14">
-        <v>-0.01165523023643378</v>
+        <v>-0.009434633898383766</v>
       </c>
       <c r="E14">
-        <v>0.008520374004820476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.0006473572164739264</v>
+      </c>
+      <c r="F14">
+        <v>-0.007054196444428645</v>
+      </c>
+      <c r="G14">
+        <v>0.08322658794611879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001564951211189672</v>
+        <v>0.03277653604389307</v>
       </c>
       <c r="C16">
-        <v>0.008770997455310896</v>
+        <v>0.04883073519478549</v>
       </c>
       <c r="D16">
-        <v>-0.0495685857414834</v>
+        <v>-0.001971875479592545</v>
       </c>
       <c r="E16">
-        <v>0.006256923376680124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007474383121095883</v>
+      </c>
+      <c r="F16">
+        <v>0.00251099645173827</v>
+      </c>
+      <c r="G16">
+        <v>0.06993756006621732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01480442235374279</v>
+        <v>0.01968646790929485</v>
       </c>
       <c r="C19">
-        <v>0.01731416792874904</v>
+        <v>0.04963384507523762</v>
       </c>
       <c r="D19">
-        <v>-0.02193721467439307</v>
+        <v>-0.01868994981140592</v>
       </c>
       <c r="E19">
-        <v>0.006692187609501051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06385763621710203</v>
+      </c>
+      <c r="F19">
+        <v>0.02262893624412801</v>
+      </c>
+      <c r="G19">
+        <v>0.1138690823260634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01110270271700409</v>
+        <v>0.01399302748176633</v>
       </c>
       <c r="C20">
-        <v>0.005973426496966642</v>
+        <v>0.03757020665960085</v>
       </c>
       <c r="D20">
-        <v>-0.01774586913048503</v>
+        <v>-0.01404073507793942</v>
       </c>
       <c r="E20">
-        <v>-0.009703026088398006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02660370394610106</v>
+      </c>
+      <c r="F20">
+        <v>-0.009684352253519378</v>
+      </c>
+      <c r="G20">
+        <v>0.08937203076091577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01537510996224562</v>
+        <v>0.0114625018853023</v>
       </c>
       <c r="C21">
-        <v>0.01767371744326593</v>
+        <v>0.03858506557032153</v>
       </c>
       <c r="D21">
-        <v>-0.02631986132360811</v>
+        <v>-0.0184064034885966</v>
       </c>
       <c r="E21">
-        <v>0.01316807010594282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03931681147346856</v>
+      </c>
+      <c r="F21">
+        <v>0.001635463998378948</v>
+      </c>
+      <c r="G21">
+        <v>0.1177921578332732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0005254454176755277</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0001581039820001938</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0001675547801944442</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0006487606440904026</v>
+      </c>
+      <c r="F22">
+        <v>0.0005729834468415142</v>
+      </c>
+      <c r="G22">
+        <v>0.00151020261398862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0005254454176755277</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001581039820001938</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0001675547801944442</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0006487606440904026</v>
+      </c>
+      <c r="F23">
+        <v>0.0005729834468415142</v>
+      </c>
+      <c r="G23">
+        <v>0.00151020261398862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004467154601286417</v>
+        <v>0.02729119530239168</v>
       </c>
       <c r="C24">
-        <v>-0.002652144157350136</v>
+        <v>0.0515678417090512</v>
       </c>
       <c r="D24">
-        <v>-0.04605251785570298</v>
+        <v>-0.007253928391342736</v>
       </c>
       <c r="E24">
-        <v>0.002854301489716695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.004100063995364349</v>
+      </c>
+      <c r="F24">
+        <v>0.01390136074395511</v>
+      </c>
+      <c r="G24">
+        <v>0.07062872210255058</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01246068053982073</v>
+        <v>0.04198636372144421</v>
       </c>
       <c r="C25">
-        <v>0.01461963218898846</v>
+        <v>0.05892159407921915</v>
       </c>
       <c r="D25">
-        <v>-0.04949241321661756</v>
+        <v>-0.01125120499997114</v>
       </c>
       <c r="E25">
-        <v>0.003140092781323354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.002168366253494509</v>
+      </c>
+      <c r="F25">
+        <v>0.007951702430408556</v>
+      </c>
+      <c r="G25">
+        <v>0.07894272772163424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02338244568628373</v>
+        <v>0.01404399514819222</v>
       </c>
       <c r="C26">
-        <v>0.009409940808489229</v>
+        <v>0.01029916461512324</v>
       </c>
       <c r="D26">
-        <v>0.001651352775452133</v>
+        <v>-0.02371994753696516</v>
       </c>
       <c r="E26">
-        <v>0.008742429647240507</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.004948596527896707</v>
+      </c>
+      <c r="F26">
+        <v>-0.007614556981735979</v>
+      </c>
+      <c r="G26">
+        <v>0.06586034453982853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04696063348853311</v>
+        <v>0.1289377752333603</v>
       </c>
       <c r="C28">
-        <v>0.2486084220539332</v>
+        <v>-0.2346630025814813</v>
       </c>
       <c r="D28">
-        <v>0.1349624567407511</v>
+        <v>0.005954247096022752</v>
       </c>
       <c r="E28">
-        <v>0.01007628882965587</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.005466550663288899</v>
+      </c>
+      <c r="F28">
+        <v>-0.01552813809225003</v>
+      </c>
+      <c r="G28">
+        <v>0.06641423055890426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009133490001040702</v>
+        <v>0.008864513219342417</v>
       </c>
       <c r="C29">
-        <v>0.01858698919870135</v>
+        <v>0.02039868604950544</v>
       </c>
       <c r="D29">
-        <v>-0.0103126950276998</v>
+        <v>-0.008394663841630652</v>
       </c>
       <c r="E29">
-        <v>0.003661156676835657</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001502506182222847</v>
+      </c>
+      <c r="F29">
+        <v>-0.01514317248186865</v>
+      </c>
+      <c r="G29">
+        <v>0.07538703514524572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0243448756985165</v>
+        <v>0.04026105222910316</v>
       </c>
       <c r="C30">
-        <v>-0.000580213185362926</v>
+        <v>0.06782690443083965</v>
       </c>
       <c r="D30">
-        <v>-0.06161477804378514</v>
+        <v>-0.02918002153252651</v>
       </c>
       <c r="E30">
-        <v>-0.044548760922984</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05035794441725744</v>
+      </c>
+      <c r="F30">
+        <v>0.05113088871715632</v>
+      </c>
+      <c r="G30">
+        <v>0.08527707668937499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01004686148155045</v>
+        <v>0.05223014090245102</v>
       </c>
       <c r="C31">
-        <v>0.03883933955724671</v>
+        <v>0.03696796218353662</v>
       </c>
       <c r="D31">
-        <v>-0.04655093499688054</v>
+        <v>-0.003444164560178519</v>
       </c>
       <c r="E31">
-        <v>0.01095062204327564</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.004350018699064438</v>
+      </c>
+      <c r="F31">
+        <v>-0.04056247792997022</v>
+      </c>
+      <c r="G31">
+        <v>0.07529617013339279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004629885261959757</v>
+        <v>0.001191516198441805</v>
       </c>
       <c r="C32">
-        <v>0.02282538294098108</v>
+        <v>0.02237094031198053</v>
       </c>
       <c r="D32">
-        <v>0.0005150082124548288</v>
+        <v>0.00402422178681114</v>
       </c>
       <c r="E32">
-        <v>0.0527854812708483</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01424042088649358</v>
+      </c>
+      <c r="F32">
+        <v>0.04007284526916077</v>
+      </c>
+      <c r="G32">
+        <v>0.09268552514747931</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01435865343769092</v>
+        <v>0.02678108540063383</v>
       </c>
       <c r="C33">
-        <v>0.02254221427608347</v>
+        <v>0.04884242119242128</v>
       </c>
       <c r="D33">
-        <v>-0.03543388911364095</v>
+        <v>-0.01554606641308505</v>
       </c>
       <c r="E33">
-        <v>-0.02809367934015192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03267658638994319</v>
+      </c>
+      <c r="F33">
+        <v>0.01929686070353022</v>
+      </c>
+      <c r="G33">
+        <v>0.1124041967704222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003965070498664338</v>
+        <v>0.03976166440977191</v>
       </c>
       <c r="C34">
-        <v>0.01468334855533391</v>
+        <v>0.06279107094210475</v>
       </c>
       <c r="D34">
-        <v>-0.05413968033619106</v>
+        <v>0.004587236065058106</v>
       </c>
       <c r="E34">
-        <v>0.01073985524722534</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.001588932987511003</v>
+      </c>
+      <c r="F34">
+        <v>0.02050991166683823</v>
+      </c>
+      <c r="G34">
+        <v>0.0788653347217112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01334523246331117</v>
+        <v>0.01546586975266275</v>
       </c>
       <c r="C36">
-        <v>0.0195526682345335</v>
+        <v>0.008491859800580379</v>
       </c>
       <c r="D36">
-        <v>-0.007248278994578832</v>
+        <v>-0.01187532131845142</v>
       </c>
       <c r="E36">
-        <v>0.003750385331512641</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001486822025963377</v>
+      </c>
+      <c r="F36">
+        <v>-0.006800744271927832</v>
+      </c>
+      <c r="G36">
+        <v>0.06657906399515426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003084760915655735</v>
+        <v>0.03233862110799787</v>
       </c>
       <c r="C38">
-        <v>0.03101517392848908</v>
+        <v>0.0312801576933923</v>
       </c>
       <c r="D38">
-        <v>-0.04335408628861298</v>
+        <v>0.007636204237456857</v>
       </c>
       <c r="E38">
-        <v>0.007983242639455889</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002406964722756519</v>
+      </c>
+      <c r="F38">
+        <v>-0.01706194539089563</v>
+      </c>
+      <c r="G38">
+        <v>0.07056671634047185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004238174491100178</v>
+        <v>0.03413185869453887</v>
       </c>
       <c r="C39">
-        <v>-0.02520491547676598</v>
+        <v>0.08105880778622673</v>
       </c>
       <c r="D39">
-        <v>-0.08786938428680111</v>
+        <v>-0.01173604217933198</v>
       </c>
       <c r="E39">
-        <v>-0.007978303899744986</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01834685444585614</v>
+      </c>
+      <c r="F39">
+        <v>0.02694962103900887</v>
+      </c>
+      <c r="G39">
+        <v>0.06706436673910648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0124360137609707</v>
+        <v>0.01495658954680461</v>
       </c>
       <c r="C40">
-        <v>0.01521833517173176</v>
+        <v>0.04186103483233593</v>
       </c>
       <c r="D40">
-        <v>-0.02937155401451718</v>
+        <v>-0.01499494747963626</v>
       </c>
       <c r="E40">
-        <v>0.004075826275641375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0206220539200394</v>
+      </c>
+      <c r="F40">
+        <v>-0.01354917286715187</v>
+      </c>
+      <c r="G40">
+        <v>0.1070048233334969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006494451508381183</v>
+        <v>0.0190771046654727</v>
       </c>
       <c r="C41">
-        <v>0.02100875454688247</v>
+        <v>-0.0005928356117532375</v>
       </c>
       <c r="D41">
-        <v>0.007445875239546818</v>
+        <v>-0.00395871141435679</v>
       </c>
       <c r="E41">
-        <v>0.003193193167238675</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0003046910240321594</v>
+      </c>
+      <c r="F41">
+        <v>-0.01059484648175681</v>
+      </c>
+      <c r="G41">
+        <v>0.0535018558128224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09272001150590066</v>
+        <v>0.009610831619132034</v>
       </c>
       <c r="C42">
-        <v>-0.02861412038441987</v>
+        <v>0.03697722904489941</v>
       </c>
       <c r="D42">
-        <v>-0.2474011315806917</v>
+        <v>-0.09325837980844803</v>
       </c>
       <c r="E42">
-        <v>-0.4045986068627803</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.02736930562246125</v>
+      </c>
+      <c r="F42">
+        <v>-0.03559615814725166</v>
+      </c>
+      <c r="G42">
+        <v>-0.1439940051362993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007903799088010706</v>
+        <v>0.03294322433802462</v>
       </c>
       <c r="C43">
-        <v>0.02566380352939871</v>
+        <v>0.01408179841984953</v>
       </c>
       <c r="D43">
-        <v>0.005388734455829811</v>
+        <v>-0.00579561084235383</v>
       </c>
       <c r="E43">
-        <v>-0.001580008851895961</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01419626897238108</v>
+      </c>
+      <c r="F43">
+        <v>-0.001391362038821195</v>
+      </c>
+      <c r="G43">
+        <v>0.08013320189795954</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002901669962573122</v>
+        <v>0.01129707924505733</v>
       </c>
       <c r="C44">
-        <v>0.001708430160913892</v>
+        <v>0.05628239595525766</v>
       </c>
       <c r="D44">
-        <v>-0.04012693981153296</v>
+        <v>-0.006521182677875171</v>
       </c>
       <c r="E44">
-        <v>0.008480472200286719</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01664456529846685</v>
+      </c>
+      <c r="F44">
+        <v>-0.008758769514595584</v>
+      </c>
+      <c r="G44">
+        <v>0.08774916087257281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01151311502574121</v>
+        <v>0.00730385216288146</v>
       </c>
       <c r="C46">
-        <v>0.01422335558720896</v>
+        <v>0.01526740125996671</v>
       </c>
       <c r="D46">
-        <v>-0.01090970370798774</v>
+        <v>-0.01206480226115676</v>
       </c>
       <c r="E46">
-        <v>-8.428784139474962e-05</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001256273562131194</v>
+      </c>
+      <c r="F46">
+        <v>-0.01502499150979697</v>
+      </c>
+      <c r="G46">
+        <v>0.07624753965318405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004598103949532578</v>
+        <v>0.07686357375567497</v>
       </c>
       <c r="C47">
-        <v>0.04798585343464092</v>
+        <v>0.06698847000917288</v>
       </c>
       <c r="D47">
-        <v>-0.07281463342304983</v>
+        <v>0.005297987067340783</v>
       </c>
       <c r="E47">
-        <v>0.00625439725156604</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008646298471053058</v>
+      </c>
+      <c r="F47">
+        <v>-0.05432033964693612</v>
+      </c>
+      <c r="G47">
+        <v>0.06890646887941518</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004177650584968291</v>
+        <v>0.02017017382105303</v>
       </c>
       <c r="C48">
-        <v>0.02359401269892759</v>
+        <v>0.01195607613937283</v>
       </c>
       <c r="D48">
-        <v>-0.01911788699350531</v>
+        <v>-0.001303934735988016</v>
       </c>
       <c r="E48">
-        <v>0.003198573136574335</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.001026543235450633</v>
+      </c>
+      <c r="F48">
+        <v>-0.02031502171274239</v>
+      </c>
+      <c r="G48">
+        <v>0.07200929452320042</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006977194287438578</v>
+        <v>0.07521263697942997</v>
       </c>
       <c r="C50">
-        <v>0.05196048085146839</v>
+        <v>0.06967783914251949</v>
       </c>
       <c r="D50">
-        <v>-0.07226004067441397</v>
+        <v>0.002886974625487926</v>
       </c>
       <c r="E50">
-        <v>0.03305527378444149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.008625535060751121</v>
+      </c>
+      <c r="F50">
+        <v>-0.05893266789442609</v>
+      </c>
+      <c r="G50">
+        <v>0.08862748216195145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007745391402752599</v>
+        <v>0.013185672108346</v>
       </c>
       <c r="C51">
-        <v>0.01491404313243155</v>
+        <v>0.03409317171911141</v>
       </c>
       <c r="D51">
-        <v>-0.001312618105336041</v>
+        <v>-0.01005527307313219</v>
       </c>
       <c r="E51">
-        <v>0.006248285276781017</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01590755015173347</v>
+      </c>
+      <c r="F51">
+        <v>0.0248964532128278</v>
+      </c>
+      <c r="G51">
+        <v>0.1038467045679717</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.007668463122226123</v>
+        <v>0.08105852435593484</v>
       </c>
       <c r="C53">
-        <v>0.0575568366034586</v>
+        <v>0.08437987539567367</v>
       </c>
       <c r="D53">
-        <v>-0.1311191148043682</v>
+        <v>0.004281504371390315</v>
       </c>
       <c r="E53">
-        <v>0.01459190918936619</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02841897901815777</v>
+      </c>
+      <c r="F53">
+        <v>-0.06576564295954977</v>
+      </c>
+      <c r="G53">
+        <v>0.06857694733317439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002177609927747482</v>
+        <v>0.02877997072721556</v>
       </c>
       <c r="C54">
-        <v>0.03557315464082739</v>
+        <v>0.01512298817517738</v>
       </c>
       <c r="D54">
-        <v>0.006471374051044157</v>
+        <v>0.001515833388054814</v>
       </c>
       <c r="E54">
-        <v>0.001268931826294933</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0095095923214739</v>
+      </c>
+      <c r="F54">
+        <v>0.000581001320722877</v>
+      </c>
+      <c r="G54">
+        <v>0.07806960292741372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003768717713899051</v>
+        <v>0.07081169384646399</v>
       </c>
       <c r="C55">
-        <v>0.036512741855083</v>
+        <v>0.06920015457764683</v>
       </c>
       <c r="D55">
-        <v>-0.1045137593637647</v>
+        <v>0.005390766864462631</v>
       </c>
       <c r="E55">
-        <v>-0.0002769279399945788</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02405412287522964</v>
+      </c>
+      <c r="F55">
+        <v>-0.06227053599337175</v>
+      </c>
+      <c r="G55">
+        <v>0.04338912512992128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.006839589648344681</v>
+        <v>0.1371579114795401</v>
       </c>
       <c r="C56">
-        <v>0.07981517869192595</v>
+        <v>0.1102257559867056</v>
       </c>
       <c r="D56">
-        <v>-0.1671150332463688</v>
+        <v>0.0126911826429778</v>
       </c>
       <c r="E56">
-        <v>0.004034740657804076</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03175439730764548</v>
+      </c>
+      <c r="F56">
+        <v>-0.08088326576225018</v>
+      </c>
+      <c r="G56">
+        <v>0.021371525560372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02387726325714057</v>
+        <v>0.006843009176517783</v>
       </c>
       <c r="C57">
-        <v>0.006907417678569657</v>
+        <v>0.009326080477362653</v>
       </c>
       <c r="D57">
-        <v>-0.04624065452611605</v>
+        <v>-0.02362060340030687</v>
       </c>
       <c r="E57">
-        <v>-0.001680792603198279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02389805960459809</v>
+      </c>
+      <c r="F57">
+        <v>0.009045824271250573</v>
+      </c>
+      <c r="G57">
+        <v>0.02871711710163185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01504328430663105</v>
+        <v>0.05741767030011025</v>
       </c>
       <c r="C58">
-        <v>0.06285526048730755</v>
+        <v>0.05295924605142521</v>
       </c>
       <c r="D58">
-        <v>-0.1489406988378801</v>
+        <v>-0.03103471651837628</v>
       </c>
       <c r="E58">
-        <v>-0.4264729328957186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9385244238039476</v>
+      </c>
+      <c r="F58">
+        <v>-0.2289705204494753</v>
+      </c>
+      <c r="G58">
+        <v>-0.1141080294946407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04491037973959978</v>
+        <v>0.1616111344660702</v>
       </c>
       <c r="C59">
-        <v>0.264657471012364</v>
+        <v>-0.199265584306881</v>
       </c>
       <c r="D59">
-        <v>0.1347658657906534</v>
+        <v>0.01102046753510547</v>
       </c>
       <c r="E59">
-        <v>0.002926580048382432</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01725246639596832</v>
+      </c>
+      <c r="F59">
+        <v>0.001588788761242061</v>
+      </c>
+      <c r="G59">
+        <v>0.04116161225707344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04377793250213577</v>
+        <v>0.2850181824967989</v>
       </c>
       <c r="C60">
-        <v>0.1609108038997449</v>
+        <v>0.1080957094450258</v>
       </c>
       <c r="D60">
-        <v>-0.09499583344131085</v>
+        <v>-0.01305138128647342</v>
       </c>
       <c r="E60">
-        <v>0.003990351760392018</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.0003965890033783809</v>
+      </c>
+      <c r="F60">
+        <v>0.3503215421870879</v>
+      </c>
+      <c r="G60">
+        <v>-0.1272111792213994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003225446641027643</v>
+        <v>0.03644099354757289</v>
       </c>
       <c r="C61">
-        <v>0.003802824411939165</v>
+        <v>0.06741133785519698</v>
       </c>
       <c r="D61">
-        <v>-0.06637404032070839</v>
+        <v>-0.005149355497024227</v>
       </c>
       <c r="E61">
-        <v>0.003632601989138893</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01134316094659733</v>
+      </c>
+      <c r="F61">
+        <v>0.01413523033363973</v>
+      </c>
+      <c r="G61">
+        <v>0.06887733578281797</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008289465422853715</v>
+        <v>0.01429700114640879</v>
       </c>
       <c r="C63">
-        <v>0.007682488511086998</v>
+        <v>0.0287159028776771</v>
       </c>
       <c r="D63">
-        <v>-0.01793612110875192</v>
+        <v>-0.008184117483832945</v>
       </c>
       <c r="E63">
-        <v>0.009852192490979744</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001069854479293276</v>
+      </c>
+      <c r="F63">
+        <v>-0.01767427512964415</v>
+      </c>
+      <c r="G63">
+        <v>0.07611706810518806</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009244831287843217</v>
+        <v>0.04714636567610775</v>
       </c>
       <c r="C64">
-        <v>0.02602962176698942</v>
+        <v>0.04605379885182927</v>
       </c>
       <c r="D64">
-        <v>-0.06111479656628353</v>
+        <v>-0.00629336746149866</v>
       </c>
       <c r="E64">
-        <v>-0.01151980716261221</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0009108524052139453</v>
+      </c>
+      <c r="F64">
+        <v>0.00585491140741558</v>
+      </c>
+      <c r="G64">
+        <v>0.06710690669863471</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01650126692997733</v>
+        <v>0.07494734308516814</v>
       </c>
       <c r="C65">
-        <v>-0.001151116587465722</v>
+        <v>0.06096167508856155</v>
       </c>
       <c r="D65">
-        <v>-0.09279502082992219</v>
+        <v>-0.01646321218933593</v>
       </c>
       <c r="E65">
-        <v>0.01512015771720276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02694239846048449</v>
+      </c>
+      <c r="F65">
+        <v>0.02968820137190708</v>
+      </c>
+      <c r="G65">
+        <v>0.02867370709753271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004148487503231536</v>
+        <v>0.04975067712944134</v>
       </c>
       <c r="C66">
-        <v>-0.02076424608647752</v>
+        <v>0.1114399552035434</v>
       </c>
       <c r="D66">
-        <v>-0.1158719706565928</v>
+        <v>-0.01173370233246583</v>
       </c>
       <c r="E66">
-        <v>-0.005090709262303271</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02635747278395217</v>
+      </c>
+      <c r="F66">
+        <v>0.03602350052466777</v>
+      </c>
+      <c r="G66">
+        <v>0.08011048556035689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003812917478392002</v>
+        <v>0.05503231348811607</v>
       </c>
       <c r="C67">
-        <v>0.05282385666809147</v>
+        <v>0.03553663430977596</v>
       </c>
       <c r="D67">
-        <v>-0.05286737790009437</v>
+        <v>0.005933785469003216</v>
       </c>
       <c r="E67">
-        <v>0.008839499313096712</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004106914891864957</v>
+      </c>
+      <c r="F67">
+        <v>-0.0172809374160735</v>
+      </c>
+      <c r="G67">
+        <v>0.06314017885717108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06034850950672112</v>
+        <v>0.1558374555637923</v>
       </c>
       <c r="C68">
-        <v>0.2394745980386425</v>
+        <v>-0.2675177401053226</v>
       </c>
       <c r="D68">
-        <v>0.1531693956854779</v>
+        <v>-0.005986459983501969</v>
       </c>
       <c r="E68">
-        <v>-0.01997513639891754</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01068894079655841</v>
+      </c>
+      <c r="F68">
+        <v>-0.03211469760391708</v>
+      </c>
+      <c r="G68">
+        <v>0.02385981653735453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.000572910404575052</v>
+        <v>0.08048506185719963</v>
       </c>
       <c r="C69">
-        <v>0.03732425168085504</v>
+        <v>0.07027686291116979</v>
       </c>
       <c r="D69">
-        <v>-0.07393744146745512</v>
+        <v>0.009386065929476222</v>
       </c>
       <c r="E69">
-        <v>0.01199093320538984</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02553834608829713</v>
+      </c>
+      <c r="F69">
+        <v>-0.03733006767452773</v>
+      </c>
+      <c r="G69">
+        <v>0.07099934338811949</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04504478331417823</v>
+        <v>0.142331125000639</v>
       </c>
       <c r="C71">
-        <v>0.2104921465760767</v>
+        <v>-0.2281074334652338</v>
       </c>
       <c r="D71">
-        <v>0.1151468252676356</v>
+        <v>0.002592742947632384</v>
       </c>
       <c r="E71">
-        <v>-0.0123674670553583</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03111347063733883</v>
+      </c>
+      <c r="F71">
+        <v>-0.01728411733712322</v>
+      </c>
+      <c r="G71">
+        <v>0.05918108708808368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0008188742330794326</v>
+        <v>0.08410376543898121</v>
       </c>
       <c r="C72">
-        <v>0.0357971201935235</v>
+        <v>0.0727210428344937</v>
       </c>
       <c r="D72">
-        <v>-0.119099214841609</v>
+        <v>0.008044170041626881</v>
       </c>
       <c r="E72">
-        <v>0.007031080498081523</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.003045523149650093</v>
+      </c>
+      <c r="F72">
+        <v>0.0423689077545527</v>
+      </c>
+      <c r="G72">
+        <v>0.06252603041226683</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05526252576803112</v>
+        <v>0.3736214999876286</v>
       </c>
       <c r="C73">
-        <v>0.1687625805032379</v>
+        <v>0.1261424836769014</v>
       </c>
       <c r="D73">
-        <v>-0.1924065281859015</v>
+        <v>-0.02270780479899989</v>
       </c>
       <c r="E73">
-        <v>-0.03061579189872151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06523101047955349</v>
+      </c>
+      <c r="F73">
+        <v>0.5726612006826892</v>
+      </c>
+      <c r="G73">
+        <v>-0.2201404825714006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.003494523597684944</v>
+        <v>0.10482369048424</v>
       </c>
       <c r="C74">
-        <v>0.06278620221672282</v>
+        <v>0.1121584691313018</v>
       </c>
       <c r="D74">
-        <v>-0.1700813849600498</v>
+        <v>0.009664251656298278</v>
       </c>
       <c r="E74">
-        <v>-0.006979625130458302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01058533735270464</v>
+      </c>
+      <c r="F74">
+        <v>-0.0707198477420887</v>
+      </c>
+      <c r="G74">
+        <v>0.06591854856834591</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01284669903998416</v>
+        <v>0.2484391036145413</v>
       </c>
       <c r="C75">
-        <v>0.1584573737948281</v>
+        <v>0.1526554429654318</v>
       </c>
       <c r="D75">
-        <v>-0.3009658345816459</v>
+        <v>0.03089779408169049</v>
       </c>
       <c r="E75">
-        <v>-0.01245785729143167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05473996712602542</v>
+      </c>
+      <c r="F75">
+        <v>-0.1765735002063057</v>
+      </c>
+      <c r="G75">
+        <v>-0.04693332005503541</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.001671535668376968</v>
+        <v>0.1209598363072547</v>
       </c>
       <c r="C76">
-        <v>0.1027164954934069</v>
+        <v>0.1135267209292771</v>
       </c>
       <c r="D76">
-        <v>-0.2329110689279872</v>
+        <v>0.02022830248202384</v>
       </c>
       <c r="E76">
-        <v>0.03533151701467116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0384589770003514</v>
+      </c>
+      <c r="F76">
+        <v>-0.116496668952556</v>
+      </c>
+      <c r="G76">
+        <v>0.04362342528810114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01442129912609234</v>
+        <v>0.06572791759179586</v>
       </c>
       <c r="C77">
-        <v>0.01999706074852525</v>
+        <v>0.06260276875882882</v>
       </c>
       <c r="D77">
-        <v>-0.03952408472919029</v>
+        <v>-0.01274138856146329</v>
       </c>
       <c r="E77">
-        <v>-0.01637639932352388</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04869432975163848</v>
+      </c>
+      <c r="F77">
+        <v>0.01221161217046042</v>
+      </c>
+      <c r="G77">
+        <v>0.0588268467885437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.005838424212193089</v>
+        <v>0.04174157231500678</v>
       </c>
       <c r="C78">
-        <v>0.01413040035830287</v>
+        <v>0.05096215852075884</v>
       </c>
       <c r="D78">
-        <v>-0.04072267542515356</v>
+        <v>-0.005539890244937048</v>
       </c>
       <c r="E78">
-        <v>-0.002879782138325957</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02133331191207739</v>
+      </c>
+      <c r="F78">
+        <v>0.03785251214302299</v>
+      </c>
+      <c r="G78">
+        <v>0.07114073633518933</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01706327343993622</v>
+        <v>0.05379816963256895</v>
       </c>
       <c r="C80">
-        <v>0.07732283895096656</v>
+        <v>0.07078850309867227</v>
       </c>
       <c r="D80">
-        <v>-0.2024727791743633</v>
+        <v>-0.01048681359841276</v>
       </c>
       <c r="E80">
-        <v>0.7827557264744877</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02587342213026491</v>
+      </c>
+      <c r="F80">
+        <v>0.002287471831983008</v>
+      </c>
+      <c r="G80">
+        <v>0.5926845212635551</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.00922615632123402</v>
+        <v>0.1394860097909666</v>
       </c>
       <c r="C81">
-        <v>0.09926927728700835</v>
+        <v>0.09714732825644011</v>
       </c>
       <c r="D81">
-        <v>-0.1714379527270121</v>
+        <v>0.01553003461031919</v>
       </c>
       <c r="E81">
-        <v>0.01643090172750337</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03306572362688601</v>
+      </c>
+      <c r="F81">
+        <v>-0.1338859491722556</v>
+      </c>
+      <c r="G81">
+        <v>0.02411901604755359</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1234282923635584</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07104850663125405</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.008103393997355348</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08719741998414093</v>
+      </c>
+      <c r="F82">
+        <v>-0.03427124960037511</v>
+      </c>
+      <c r="G82">
+        <v>0.02399812138029783</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007019717031222367</v>
+        <v>0.03618969912114366</v>
       </c>
       <c r="C83">
-        <v>0.01802423207170565</v>
+        <v>0.02800660103202096</v>
       </c>
       <c r="D83">
-        <v>-0.02253066232251968</v>
+        <v>-0.005612214349764757</v>
       </c>
       <c r="E83">
-        <v>-0.0003049285355142037</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02509684661816696</v>
+      </c>
+      <c r="F83">
+        <v>0.03432471097249479</v>
+      </c>
+      <c r="G83">
+        <v>0.04678685345241992</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01949782093371325</v>
+        <v>0.2140622002014193</v>
       </c>
       <c r="C85">
-        <v>0.1259879803564983</v>
+        <v>0.1484472771179804</v>
       </c>
       <c r="D85">
-        <v>-0.2772968958950836</v>
+        <v>0.0188875397577889</v>
       </c>
       <c r="E85">
-        <v>-0.004848291737442507</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09582121281501588</v>
+      </c>
+      <c r="F85">
+        <v>-0.1375418490675618</v>
+      </c>
+      <c r="G85">
+        <v>-0.1006883802782835</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.00966116367766599</v>
+        <v>0.01332442024074728</v>
       </c>
       <c r="C86">
-        <v>0.02901078980219793</v>
+        <v>0.02644429289991139</v>
       </c>
       <c r="D86">
-        <v>-0.01585825220903234</v>
+        <v>-0.01211695469335419</v>
       </c>
       <c r="E86">
-        <v>-0.03406375744474003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04312962760262676</v>
+      </c>
+      <c r="F86">
+        <v>0.03283629109102519</v>
+      </c>
+      <c r="G86">
+        <v>0.1536459603106907</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008952048088620483</v>
+        <v>0.02278162447389508</v>
       </c>
       <c r="C87">
-        <v>0.0074046761153959</v>
+        <v>0.02259141027483067</v>
       </c>
       <c r="D87">
-        <v>-0.04079090131304276</v>
+        <v>-0.01239571813633958</v>
       </c>
       <c r="E87">
-        <v>-0.006310285192954948</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08286398473488781</v>
+      </c>
+      <c r="F87">
+        <v>0.02129124792052894</v>
+      </c>
+      <c r="G87">
+        <v>0.1010933029844082</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.027603070078272</v>
+        <v>0.09049847462878577</v>
       </c>
       <c r="C88">
-        <v>0.02647880317188915</v>
+        <v>0.06599968670189552</v>
       </c>
       <c r="D88">
-        <v>-0.03785772950914115</v>
+        <v>-0.0224987503312796</v>
       </c>
       <c r="E88">
-        <v>0.001108405281760117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.009078678060867665</v>
+      </c>
+      <c r="F88">
+        <v>-0.01837544022171586</v>
+      </c>
+      <c r="G88">
+        <v>0.05609185065278147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.08731342583910406</v>
+        <v>0.2358818247620015</v>
       </c>
       <c r="C89">
-        <v>0.3972707034823319</v>
+        <v>-0.3675585342389861</v>
       </c>
       <c r="D89">
-        <v>0.2068865910555927</v>
+        <v>0.000598570909387493</v>
       </c>
       <c r="E89">
-        <v>0.01200793804224582</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01688013422069036</v>
+      </c>
+      <c r="F89">
+        <v>-0.03103739495778515</v>
+      </c>
+      <c r="G89">
+        <v>0.05266499465494156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06583310595591045</v>
+        <v>0.2097220390234939</v>
       </c>
       <c r="C90">
-        <v>0.3046672058437294</v>
+        <v>-0.3190844801853887</v>
       </c>
       <c r="D90">
-        <v>0.1884845747857863</v>
+        <v>0.004598458224817119</v>
       </c>
       <c r="E90">
-        <v>-0.02221948135627557</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.003883332532516891</v>
+      </c>
+      <c r="F90">
+        <v>-0.04828784753409988</v>
+      </c>
+      <c r="G90">
+        <v>0.01883454031077772</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.009242899872754576</v>
+        <v>0.1879925886558708</v>
       </c>
       <c r="C91">
-        <v>0.1387532517508362</v>
+        <v>0.1440479932727342</v>
       </c>
       <c r="D91">
-        <v>-0.2316113841941425</v>
+        <v>0.02317711327635192</v>
       </c>
       <c r="E91">
-        <v>0.0157098904253685</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06515274051668656</v>
+      </c>
+      <c r="F91">
+        <v>-0.1472031251725397</v>
+      </c>
+      <c r="G91">
+        <v>0.01720868279684774</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.03322825340803996</v>
+        <v>0.2035851211928545</v>
       </c>
       <c r="C92">
-        <v>0.3164676909399674</v>
+        <v>-0.25658890693146</v>
       </c>
       <c r="D92">
-        <v>0.07807915662684892</v>
+        <v>0.03872225004800601</v>
       </c>
       <c r="E92">
-        <v>-0.02209375214247214</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.03029796126991207</v>
+      </c>
+      <c r="F92">
+        <v>-0.05957058321179129</v>
+      </c>
+      <c r="G92">
+        <v>0.1251537520251574</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06412705063936588</v>
+        <v>0.2346021490544602</v>
       </c>
       <c r="C93">
-        <v>0.3292481648231161</v>
+        <v>-0.3156346004350865</v>
       </c>
       <c r="D93">
-        <v>0.1707277447454232</v>
+        <v>0.01113583573142895</v>
       </c>
       <c r="E93">
-        <v>-0.0456777205847135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.009156803882651143</v>
+      </c>
+      <c r="F93">
+        <v>-0.0297369242342695</v>
+      </c>
+      <c r="G93">
+        <v>0.02301305212858644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03284514976771236</v>
+        <v>0.315358723247225</v>
       </c>
       <c r="C94">
-        <v>0.1604467633613553</v>
+        <v>0.1798884437259055</v>
       </c>
       <c r="D94">
-        <v>-0.2561841403400833</v>
+        <v>0.01894227832952915</v>
       </c>
       <c r="E94">
-        <v>-0.0134682437967051</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1666400942650498</v>
+      </c>
+      <c r="F94">
+        <v>-0.4789928723323068</v>
+      </c>
+      <c r="G94">
+        <v>-0.3310110931197935</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004175452904473648</v>
+        <v>0.09786969630106732</v>
       </c>
       <c r="C95">
-        <v>0.0355684363417105</v>
+        <v>0.08644862192882384</v>
       </c>
       <c r="D95">
-        <v>-0.09602960704096355</v>
+        <v>0.009829191275366479</v>
       </c>
       <c r="E95">
-        <v>-0.1274716744383685</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.062993669788439</v>
+      </c>
+      <c r="F95">
+        <v>0.2067526986278845</v>
+      </c>
+      <c r="G95">
+        <v>-0.1029873791963986</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01573332841035734</v>
+        <v>0.1973539139222834</v>
       </c>
       <c r="C98">
-        <v>0.1511279832085058</v>
+        <v>0.0501848127337468</v>
       </c>
       <c r="D98">
-        <v>-0.1426917347185921</v>
+        <v>0.01197154056560508</v>
       </c>
       <c r="E98">
-        <v>-0.04467458548006078</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06697435737007888</v>
+      </c>
+      <c r="F98">
+        <v>0.238752805715158</v>
+      </c>
+      <c r="G98">
+        <v>-0.00615387875891726</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008913102545291773</v>
+        <v>0.008704372627639113</v>
       </c>
       <c r="C101">
-        <v>0.01829659022464289</v>
+        <v>0.02034799260017337</v>
       </c>
       <c r="D101">
-        <v>-0.009969501213898117</v>
+        <v>-0.008211805434114063</v>
       </c>
       <c r="E101">
-        <v>0.004061135951464805</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001792293237208732</v>
+      </c>
+      <c r="F101">
+        <v>-0.0161495042941434</v>
+      </c>
+      <c r="G101">
+        <v>0.07479660694272319</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.0185695231503668</v>
+        <v>0.1169262887897347</v>
       </c>
       <c r="C102">
-        <v>0.06831468904972336</v>
+        <v>0.08630375263779613</v>
       </c>
       <c r="D102">
-        <v>-0.1338762276727634</v>
+        <v>-0.0009620914658460526</v>
       </c>
       <c r="E102">
-        <v>0.003293244192192036</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03146794776476529</v>
+      </c>
+      <c r="F102">
+        <v>-0.04024182628573791</v>
+      </c>
+      <c r="G102">
+        <v>0.00452689831056315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.0009732035040547181</v>
+        <v>0.002209937608381428</v>
       </c>
       <c r="C103">
-        <v>0.006191012637329733</v>
+        <v>0.003456937211863006</v>
       </c>
       <c r="D103">
-        <v>-0.01927499481797546</v>
+        <v>6.898569086413416e-05</v>
       </c>
       <c r="E103">
-        <v>0.01248171364474642</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0006820936469657382</v>
+      </c>
+      <c r="F103">
+        <v>-0.007087280770403627</v>
+      </c>
+      <c r="G103">
+        <v>0.0106655887606237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9734556696525859</v>
+        <v>0.02109332161405716</v>
       </c>
       <c r="C104">
-        <v>-0.1833583264921189</v>
+        <v>-0.02965987130768848</v>
       </c>
       <c r="D104">
-        <v>0.01954248256771659</v>
+        <v>-0.9871654800496666</v>
       </c>
       <c r="E104">
-        <v>0.03935683337309413</v>
+        <v>0.05512216900912228</v>
+      </c>
+      <c r="F104">
+        <v>-0.03877539698611052</v>
+      </c>
+      <c r="G104">
+        <v>-0.02556144045926766</v>
       </c>
     </row>
   </sheetData>
